--- a/QLDS/Backend/src/main/resources/Phieu_nhap_kho.xlsx
+++ b/QLDS/Backend/src/main/resources/Phieu_nhap_kho.xlsx
@@ -3,20 +3,23 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24326"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:801_{6F0EE22D-D35F-4DAE-8B0D-021FEB12310E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:801_{500FEB98-1241-44AE-A7F5-2CCEE34E1876}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1950" yWindow="1950" windowWidth="29100" windowHeight="16500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3120" yWindow="3120" windowWidth="29070" windowHeight="16500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Phiếu nhập kho" sheetId="1" r:id="rId1"/>
+    <sheet name="Phiếu nhap kho" sheetId="2" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">'Phiếu nhap kho'!$B$1:$I$39</definedName>
+  </definedNames>
   <calcPr calcId="0"/>
   <oleSize ref="A1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="39">
   <si>
     <t xml:space="preserve">Mẫu số 01 - VT </t>
   </si>
@@ -54,12 +57,6 @@
     <t>ĐVT</t>
   </si>
   <si>
-    <t>Theo chứng từ</t>
-  </si>
-  <si>
-    <t>Thực nhập</t>
-  </si>
-  <si>
     <t xml:space="preserve">Đơn giá </t>
   </si>
   <si>
@@ -69,12 +66,6 @@
     <t>Mã số</t>
   </si>
   <si>
-    <t xml:space="preserve"> Người lập phiếu </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Người giao hàng </t>
-  </si>
-  <si>
     <t>Thủ kho</t>
   </si>
   <si>
@@ -90,45 +81,34 @@
     <t xml:space="preserve">             Ngày 22/12/2014 của Bộ Tài chính)</t>
   </si>
   <si>
-    <r>
-      <t>PHIẾU NHẬP KHO</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="16"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-  </si>
-  <si>
-    <t xml:space="preserve">Ngày {0} tháng {1} năm {2} </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Nợ: {0} </t>
-  </si>
-  <si>
-    <t>Có: {0}</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> - Họ và tên người giao: {0}</t>
-  </si>
-  <si>
     <t xml:space="preserve"> - Tổng số tiền (viết bằng chữ):  {0}</t>
   </si>
   <si>
     <t xml:space="preserve"> - Số chứng từ gốc kèm theo: {0}</t>
   </si>
   <si>
-    <t xml:space="preserve">Bộ phận: PHÒNG KẾ HOẠCH - VẬT TƯ	</t>
-  </si>
-  <si>
-    <t>Đơn vị: {0}</t>
-  </si>
-  <si>
-    <t xml:space="preserve">             Số: {0}</t>
+    <t>(Ký, họ tên)              (Ký, họ tên)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Giám đốc </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Người lập phiếu         Người lập phiếu </t>
+  </si>
+  <si>
+    <t xml:space="preserve">                                                                                                                                     Ngày {0} tháng {1} năm {2}  </t>
+  </si>
+  <si>
+    <t>Thực cấp</t>
+  </si>
+  <si>
+    <t>Yêu cầu</t>
+  </si>
+  <si>
+    <t>Địa điểm: {0}</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> - Xuất tại kho (ngăn lô): {0}</t>
   </si>
   <si>
     <r>
@@ -137,8 +117,8 @@
     <r>
       <rPr>
         <b/>
-        <sz val="12"/>
-        <color theme="1"/>
+        <sz val="13"/>
+        <color rgb="FF000000"/>
         <rFont val="Times New Roman"/>
         <family val="1"/>
       </rPr>
@@ -146,23 +126,55 @@
     </r>
     <r>
       <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
+        <sz val="13"/>
+        <color indexed="8"/>
         <rFont val="Times New Roman"/>
         <family val="1"/>
       </rPr>
-      <t xml:space="preserve"> số {0} ngày {1} tháng {2} năm {4} của {4}</t>
+      <t xml:space="preserve"> số {0} ngày {1} tháng {2} năm {3} của {4}</t>
     </r>
   </si>
   <si>
-    <t>Nhập tại kho: {0}.     Địa điểm: {1}</t>
+    <t xml:space="preserve"> - Họ và tên người giao hàng:    {0}</t>
+  </si>
+  <si>
+    <t>Có:  {0}</t>
+  </si>
+  <si>
+    <t>Nợ:  {0}</t>
+  </si>
+  <si>
+    <t>Ngày {0} tháng {1} năm {2}</t>
+  </si>
+  <si>
+    <r>
+      <t>PHIẾU NHẬP KHO</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color indexed="8"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+  </si>
+  <si>
+    <t>Bộ phận: PHÒNG KẾ HOẠCH - VẬT TƯ</t>
+  </si>
+  <si>
+    <t>Đơn vị:  {0}</t>
+  </si>
+  <si>
+    <t>Số: {0}</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -172,62 +184,75 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color indexed="8"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="12"/>
+      <color indexed="8"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color indexed="8"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color indexed="8"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color indexed="8"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
       <sz val="13"/>
-      <color theme="1"/>
+      <color indexed="8"/>
       <name val="Times New Roman"/>
       <family val="1"/>
     </font>
     <font>
       <b/>
       <sz val="13"/>
-      <color theme="1"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="12"/>
-      <color theme="1"/>
+      <color rgb="FF000000"/>
       <name val="Times New Roman"/>
       <family val="1"/>
     </font>
     <font>
       <b/>
       <sz val="16"/>
-      <color theme="1"/>
+      <color indexed="8"/>
       <name val="Times New Roman"/>
       <family val="1"/>
     </font>
     <font>
       <sz val="16"/>
-      <color theme="1"/>
+      <color indexed="8"/>
       <name val="Times New Roman"/>
       <family val="1"/>
     </font>
     <font>
-      <sz val="12"/>
-      <color rgb="FF000000"/>
+      <i/>
+      <sz val="10"/>
+      <color indexed="8"/>
       <name val="Times New Roman"/>
       <family val="1"/>
     </font>
     <font>
       <b/>
-      <i/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color theme="1"/>
+      <sz val="10"/>
+      <color indexed="8"/>
       <name val="Times New Roman"/>
       <family val="1"/>
     </font>
@@ -240,7 +265,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -289,90 +314,174 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="hair">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="hair">
+        <color indexed="64"/>
+      </top>
+      <bottom style="hair">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="hair">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -712,348 +821,414 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9B69FE8C-6C25-431E-9281-F846368C6053}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:H27"/>
+  <dimension ref="A1:I31"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H19" sqref="H19"/>
-    </sheetView>
+    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="8.140625" style="2" customWidth="1"/>
-    <col min="2" max="2" width="33.5703125" style="2" customWidth="1"/>
-    <col min="3" max="3" width="13.28515625" style="2" customWidth="1"/>
-    <col min="4" max="4" width="9.140625" style="2"/>
-    <col min="5" max="6" width="14.28515625" style="2" customWidth="1"/>
-    <col min="7" max="8" width="12.28515625" style="2" customWidth="1"/>
-    <col min="9" max="16384" width="9.140625" style="2"/>
+    <col min="1" max="1" width="9.140625" style="1"/>
+    <col min="2" max="2" width="7.7109375" style="1" customWidth="1"/>
+    <col min="3" max="3" width="33.5703125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="13.7109375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="8.5703125" style="1" customWidth="1"/>
+    <col min="6" max="6" width="12.85546875" style="1" customWidth="1"/>
+    <col min="7" max="7" width="14.7109375" style="1" customWidth="1"/>
+    <col min="8" max="8" width="12.85546875" style="1" customWidth="1"/>
+    <col min="9" max="9" width="14.28515625" style="1" customWidth="1"/>
+    <col min="10" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="24" t="s">
+    <row r="1" spans="2:9" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2" spans="2:9" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B2" s="41" t="s">
+        <v>37</v>
+      </c>
+      <c r="C2" s="41"/>
+      <c r="F2" s="34" t="s">
+        <v>0</v>
+      </c>
+      <c r="G2" s="34"/>
+      <c r="H2" s="34"/>
+      <c r="I2" s="34"/>
+    </row>
+    <row r="3" spans="2:9" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B3" s="41" t="s">
+        <v>36</v>
+      </c>
+      <c r="C3" s="41"/>
+      <c r="F3" s="35" t="s">
+        <v>1</v>
+      </c>
+      <c r="G3" s="35"/>
+      <c r="H3" s="35"/>
+      <c r="I3" s="35"/>
+    </row>
+    <row r="4" spans="2:9" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B4" s="24"/>
+      <c r="C4" s="5"/>
+      <c r="F4" s="35" t="s">
+        <v>19</v>
+      </c>
+      <c r="G4" s="35"/>
+      <c r="H4" s="35"/>
+      <c r="I4" s="35"/>
+    </row>
+    <row r="5" spans="2:9" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B5" s="6"/>
+    </row>
+    <row r="6" spans="2:9" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B6" s="38" t="s">
+        <v>35</v>
+      </c>
+      <c r="C6" s="38"/>
+      <c r="D6" s="38"/>
+      <c r="E6" s="38"/>
+      <c r="F6" s="38"/>
+      <c r="G6" s="38"/>
+      <c r="H6" s="38"/>
+      <c r="I6" s="38"/>
+    </row>
+    <row r="7" spans="2:9" ht="9.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B7" s="23"/>
+      <c r="C7" s="23"/>
+      <c r="D7" s="23"/>
+      <c r="E7" s="23"/>
+      <c r="F7" s="23"/>
+      <c r="G7" s="23"/>
+      <c r="H7" s="23"/>
+      <c r="I7" s="23"/>
+    </row>
+    <row r="8" spans="2:9" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B8" s="22"/>
+      <c r="C8" s="22"/>
+      <c r="D8" s="25" t="s">
+        <v>34</v>
+      </c>
+      <c r="E8" s="25"/>
+      <c r="F8" s="25"/>
+    </row>
+    <row r="9" spans="2:9" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B9" s="20"/>
+      <c r="C9" s="20"/>
+      <c r="D9" s="39" t="s">
+        <v>38</v>
+      </c>
+      <c r="E9" s="39"/>
+      <c r="F9" s="39"/>
+      <c r="G9" s="39" t="s">
+        <v>33</v>
+      </c>
+      <c r="H9" s="39"/>
+      <c r="I9" s="39"/>
+    </row>
+    <row r="10" spans="2:9" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B10" s="21"/>
+      <c r="C10" s="21"/>
+      <c r="D10" s="21"/>
+      <c r="E10" s="21"/>
+      <c r="F10" s="21"/>
+      <c r="G10" s="20" t="s">
         <v>32</v>
       </c>
-      <c r="B1" s="24"/>
-      <c r="E1" s="26" t="s">
-        <v>0</v>
-      </c>
-      <c r="F1" s="26"/>
-      <c r="G1" s="26"/>
-      <c r="H1" s="26"/>
-    </row>
-    <row r="2" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="24" t="s">
+      <c r="H10" s="20"/>
+      <c r="I10" s="20"/>
+    </row>
+    <row r="11" spans="2:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B11" s="28" t="s">
         <v>31</v>
       </c>
-      <c r="B2" s="24"/>
-      <c r="E2" s="27" t="s">
+      <c r="C11" s="29"/>
+      <c r="D11" s="29"/>
+      <c r="E11" s="28"/>
+      <c r="F11" s="29"/>
+      <c r="G11" s="29"/>
+      <c r="H11" s="29"/>
+      <c r="I11" s="29"/>
+    </row>
+    <row r="12" spans="2:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B12" s="30" t="s">
+        <v>30</v>
+      </c>
+      <c r="C12" s="30"/>
+      <c r="D12" s="30"/>
+      <c r="E12" s="30"/>
+      <c r="F12" s="30"/>
+      <c r="G12" s="30"/>
+      <c r="H12" s="30"/>
+      <c r="I12" s="30"/>
+    </row>
+    <row r="13" spans="2:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B13" s="31" t="s">
+        <v>29</v>
+      </c>
+      <c r="C13" s="31"/>
+      <c r="D13" s="31"/>
+      <c r="E13" s="30" t="s">
+        <v>28</v>
+      </c>
+      <c r="F13" s="31"/>
+      <c r="G13" s="31"/>
+      <c r="H13" s="31"/>
+      <c r="I13" s="31"/>
+    </row>
+    <row r="14" spans="2:9" ht="7.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B14" s="19"/>
+      <c r="C14" s="18"/>
+      <c r="D14" s="18"/>
+      <c r="E14" s="18"/>
+      <c r="F14" s="18"/>
+      <c r="G14" s="18"/>
+      <c r="H14" s="18"/>
+      <c r="I14" s="18"/>
+    </row>
+    <row r="15" spans="2:9" ht="23.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B15" s="36" t="s">
+        <v>9</v>
+      </c>
+      <c r="C15" s="33" t="s">
+        <v>10</v>
+      </c>
+      <c r="D15" s="33" t="s">
+        <v>14</v>
+      </c>
+      <c r="E15" s="33" t="s">
+        <v>11</v>
+      </c>
+      <c r="F15" s="33" t="s">
+        <v>2</v>
+      </c>
+      <c r="G15" s="33"/>
+      <c r="H15" s="33" t="s">
+        <v>12</v>
+      </c>
+      <c r="I15" s="33" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="16" spans="2:9" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B16" s="37"/>
+      <c r="C16" s="33"/>
+      <c r="D16" s="33"/>
+      <c r="E16" s="33"/>
+      <c r="F16" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="G16" s="17" t="s">
+        <v>26</v>
+      </c>
+      <c r="H16" s="33"/>
+      <c r="I16" s="33"/>
+    </row>
+    <row r="17" spans="2:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B17" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="C17" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="D17" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="E17" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="F17" s="10">
         <v>1</v>
       </c>
-      <c r="F2" s="27"/>
-      <c r="G2" s="27"/>
-      <c r="H2" s="27"/>
-    </row>
-    <row r="3" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="3"/>
-      <c r="B3" s="4"/>
-      <c r="E3" s="27" t="s">
-        <v>23</v>
-      </c>
-      <c r="F3" s="27"/>
-      <c r="G3" s="27"/>
-      <c r="H3" s="27"/>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A4" s="1"/>
-    </row>
-    <row r="5" spans="1:8" ht="20.25" x14ac:dyDescent="0.25">
-      <c r="A5" s="18" t="s">
-        <v>24</v>
-      </c>
-      <c r="B5" s="18"/>
-      <c r="C5" s="18"/>
-      <c r="D5" s="18"/>
-      <c r="E5" s="18"/>
-      <c r="F5" s="18"/>
-      <c r="G5" s="18"/>
-      <c r="H5" s="18"/>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A6" s="19" t="s">
-        <v>25</v>
-      </c>
-      <c r="B6" s="19"/>
-      <c r="C6" s="19"/>
-      <c r="D6" s="19"/>
-      <c r="E6" s="19"/>
-      <c r="F6" s="19"/>
-      <c r="G6" s="19"/>
-      <c r="H6" s="19"/>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A7" s="20" t="s">
-        <v>33</v>
-      </c>
-      <c r="B7" s="20"/>
-      <c r="C7" s="20"/>
-      <c r="D7" s="20"/>
-      <c r="E7" s="20"/>
-      <c r="F7" s="20"/>
-      <c r="G7" s="20"/>
-      <c r="H7" s="20"/>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A8" s="5"/>
-      <c r="B8" s="5"/>
-      <c r="C8" s="5"/>
-      <c r="D8" s="5"/>
-      <c r="E8" s="5"/>
-      <c r="F8" s="5"/>
-      <c r="G8" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="H8" s="5"/>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A9" s="5"/>
-      <c r="B9" s="5"/>
-      <c r="C9" s="5"/>
-      <c r="D9" s="5"/>
-      <c r="E9" s="5"/>
-      <c r="F9" s="5"/>
-      <c r="G9" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="H9" s="5"/>
-    </row>
-    <row r="10" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="8" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="8" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="8" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="1"/>
-    </row>
-    <row r="14" spans="1:8" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="21" t="s">
-        <v>9</v>
-      </c>
-      <c r="B14" s="21" t="s">
-        <v>10</v>
-      </c>
-      <c r="C14" s="21" t="s">
-        <v>16</v>
-      </c>
-      <c r="D14" s="21" t="s">
-        <v>11</v>
-      </c>
-      <c r="E14" s="25" t="s">
+      <c r="G17" s="10">
         <v>2</v>
       </c>
-      <c r="F14" s="25"/>
-      <c r="G14" s="21" t="s">
-        <v>14</v>
-      </c>
-      <c r="H14" s="21" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="22"/>
-      <c r="B15" s="22"/>
-      <c r="C15" s="22"/>
-      <c r="D15" s="22"/>
-      <c r="E15" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="F15" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="G15" s="22"/>
-      <c r="H15" s="22"/>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A16" s="9" t="s">
+      <c r="H17" s="10">
         <v>3</v>
       </c>
-      <c r="B16" s="9" t="s">
+      <c r="I17" s="10">
         <v>4</v>
       </c>
-      <c r="C16" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="D16" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="E16" s="9">
-        <v>1</v>
-      </c>
-      <c r="F16" s="9">
-        <v>2</v>
-      </c>
-      <c r="G16" s="9">
-        <v>3</v>
-      </c>
-      <c r="H16" s="9">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A17" s="15"/>
-      <c r="B17" s="28"/>
-      <c r="C17" s="15"/>
-      <c r="D17" s="15"/>
-      <c r="E17" s="15"/>
-      <c r="F17" s="15"/>
-      <c r="G17" s="15"/>
-      <c r="H17" s="15"/>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A18" s="15"/>
-      <c r="B18" s="28"/>
+    </row>
+    <row r="18" spans="2:9" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B18" s="16"/>
       <c r="C18" s="15"/>
       <c r="D18" s="15"/>
       <c r="E18" s="15"/>
-      <c r="F18" s="15"/>
-      <c r="G18" s="15"/>
+      <c r="F18" s="16"/>
+      <c r="G18" s="16"/>
       <c r="H18" s="15"/>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A19" s="9"/>
-      <c r="B19" s="10" t="s">
+      <c r="I18" s="15"/>
+    </row>
+    <row r="19" spans="2:9" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B19" s="13"/>
+      <c r="C19" s="14"/>
+      <c r="D19" s="13"/>
+      <c r="E19" s="13"/>
+      <c r="F19" s="13"/>
+      <c r="G19" s="13"/>
+      <c r="H19" s="13"/>
+      <c r="I19" s="13"/>
+    </row>
+    <row r="20" spans="2:9" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B20" s="13"/>
+      <c r="C20" s="14"/>
+      <c r="D20" s="13"/>
+      <c r="E20" s="13"/>
+      <c r="F20" s="13"/>
+      <c r="G20" s="13"/>
+      <c r="H20" s="13"/>
+      <c r="I20" s="13"/>
+    </row>
+    <row r="21" spans="2:9" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B21" s="13"/>
+      <c r="C21" s="14"/>
+      <c r="D21" s="13"/>
+      <c r="E21" s="13"/>
+      <c r="F21" s="13"/>
+      <c r="G21" s="13"/>
+      <c r="H21" s="13"/>
+      <c r="I21" s="13"/>
+    </row>
+    <row r="22" spans="2:9" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B22" s="11"/>
+      <c r="C22" s="12"/>
+      <c r="D22" s="11"/>
+      <c r="E22" s="11"/>
+      <c r="F22" s="11"/>
+      <c r="G22" s="11"/>
+      <c r="H22" s="11"/>
+      <c r="I22" s="11"/>
+    </row>
+    <row r="23" spans="2:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B23" s="10"/>
+      <c r="C23" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="C19" s="11" t="s">
+      <c r="D23" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="D19" s="11" t="s">
+      <c r="E23" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="E19" s="11" t="s">
+      <c r="F23" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="F19" s="11" t="s">
+      <c r="G23" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="G19" s="11" t="s">
+      <c r="H23" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="H19" s="9"/>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A21" s="6" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A22" s="6" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A23" s="1"/>
-    </row>
-    <row r="24" spans="1:8" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="16" t="s">
+      <c r="I23" s="8" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="24" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B24" s="7"/>
+    </row>
+    <row r="25" spans="2:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B25" s="6" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="26" spans="2:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B26" s="6" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="27" spans="2:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B27" s="32" t="s">
+        <v>25</v>
+      </c>
+      <c r="C27" s="32"/>
+      <c r="D27" s="32"/>
+      <c r="E27" s="32"/>
+      <c r="F27" s="32"/>
+      <c r="G27" s="32"/>
+      <c r="H27" s="32"/>
+      <c r="I27" s="32"/>
+    </row>
+    <row r="28" spans="2:9" ht="17.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B28" s="26" t="s">
+        <v>24</v>
+      </c>
+      <c r="C28" s="26"/>
+      <c r="D28" s="26" t="s">
+        <v>15</v>
+      </c>
+      <c r="E28" s="26"/>
+      <c r="F28" s="26" t="s">
+        <v>16</v>
+      </c>
+      <c r="G28" s="26"/>
+      <c r="I28" s="5" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="29" spans="2:9" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B29" s="27" t="s">
+        <v>22</v>
+      </c>
+      <c r="C29" s="27"/>
+      <c r="D29" s="27" t="s">
         <v>17</v>
       </c>
-      <c r="B24" s="16"/>
-      <c r="C24" s="16" t="s">
+      <c r="E29" s="27"/>
+      <c r="F29" s="40" t="s">
         <v>18</v>
       </c>
-      <c r="D24" s="16"/>
-      <c r="E24" s="16" t="s">
-        <v>19</v>
-      </c>
-      <c r="F24" s="16"/>
-      <c r="G24" s="16" t="s">
-        <v>20</v>
-      </c>
-      <c r="H24" s="16"/>
-    </row>
-    <row r="25" spans="1:8" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="17" t="s">
-        <v>21</v>
-      </c>
-      <c r="B25" s="17"/>
-      <c r="C25" s="17" t="s">
-        <v>21</v>
-      </c>
-      <c r="D25" s="17"/>
-      <c r="E25" s="17" t="s">
-        <v>21</v>
-      </c>
-      <c r="F25" s="17"/>
-      <c r="G25" s="23" t="s">
-        <v>22</v>
-      </c>
-      <c r="H25" s="23"/>
-    </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A26" s="12"/>
-      <c r="B26" s="12"/>
-      <c r="C26" s="12"/>
-      <c r="D26" s="13"/>
-      <c r="E26" s="13"/>
-      <c r="F26" s="13"/>
-      <c r="G26" s="23"/>
-      <c r="H26" s="23"/>
-    </row>
-    <row r="27" spans="1:8" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="14"/>
-      <c r="B27" s="12"/>
-      <c r="C27" s="17"/>
-      <c r="D27" s="17"/>
-      <c r="E27" s="13"/>
-      <c r="F27" s="13"/>
-      <c r="G27" s="17" t="s">
-        <v>21</v>
-      </c>
-      <c r="H27" s="17"/>
+      <c r="G29" s="40"/>
+      <c r="H29" s="4"/>
+      <c r="I29" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="30" spans="2:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B30" s="2"/>
+      <c r="C30" s="2"/>
+      <c r="D30" s="2"/>
+      <c r="H30" s="2"/>
+    </row>
+    <row r="31" spans="2:9" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B31" s="3"/>
+      <c r="C31" s="2"/>
+      <c r="D31" s="27"/>
+      <c r="E31" s="27"/>
     </row>
   </sheetData>
-  <mergeCells count="25">
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="E14:F14"/>
-    <mergeCell ref="A14:A15"/>
-    <mergeCell ref="B14:B15"/>
-    <mergeCell ref="C14:C15"/>
-    <mergeCell ref="D14:D15"/>
-    <mergeCell ref="E1:H1"/>
-    <mergeCell ref="E2:H2"/>
-    <mergeCell ref="E3:H3"/>
-    <mergeCell ref="C27:D27"/>
-    <mergeCell ref="G24:H24"/>
-    <mergeCell ref="C24:D24"/>
-    <mergeCell ref="C25:D25"/>
-    <mergeCell ref="G25:H26"/>
-    <mergeCell ref="G27:H27"/>
-    <mergeCell ref="A24:B24"/>
-    <mergeCell ref="A25:B25"/>
-    <mergeCell ref="E24:F24"/>
-    <mergeCell ref="E25:F25"/>
-    <mergeCell ref="A5:H5"/>
-    <mergeCell ref="A6:H6"/>
-    <mergeCell ref="A7:H7"/>
-    <mergeCell ref="G14:G15"/>
-    <mergeCell ref="H14:H15"/>
+  <mergeCells count="29">
+    <mergeCell ref="D31:E31"/>
+    <mergeCell ref="F28:G28"/>
+    <mergeCell ref="F29:G29"/>
+    <mergeCell ref="D28:E28"/>
+    <mergeCell ref="D29:E29"/>
+    <mergeCell ref="F2:I2"/>
+    <mergeCell ref="F3:I3"/>
+    <mergeCell ref="F4:I4"/>
+    <mergeCell ref="B15:B16"/>
+    <mergeCell ref="B6:I6"/>
+    <mergeCell ref="H15:H16"/>
+    <mergeCell ref="I15:I16"/>
+    <mergeCell ref="G9:I9"/>
+    <mergeCell ref="D9:F9"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="F15:G15"/>
+    <mergeCell ref="C15:C16"/>
+    <mergeCell ref="D15:D16"/>
+    <mergeCell ref="D8:F8"/>
+    <mergeCell ref="B28:C28"/>
+    <mergeCell ref="B29:C29"/>
+    <mergeCell ref="E11:I11"/>
+    <mergeCell ref="E13:I13"/>
+    <mergeCell ref="B11:D11"/>
+    <mergeCell ref="B13:D13"/>
+    <mergeCell ref="B12:I12"/>
+    <mergeCell ref="B27:I27"/>
+    <mergeCell ref="E15:E16"/>
   </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" scale="80" fitToHeight="0" orientation="portrait" r:id="rId1"/>
+  <pageMargins left="0.21" right="0.26" top="0.2" bottom="0.4" header="0.16" footer="0.3"/>
+  <pageSetup paperSize="11" scale="57" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/QLDS/Backend/src/main/resources/Phieu_nhap_kho.xlsx
+++ b/QLDS/Backend/src/main/resources/Phieu_nhap_kho.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24326"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:801_{500FEB98-1241-44AE-A7F5-2CCEE34E1876}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:801_{0A11F095-41B6-4A25-9653-A9CB330405BC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3120" yWindow="3120" windowWidth="29070" windowHeight="16500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1170" yWindow="1170" windowWidth="29070" windowHeight="16500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Phiếu nhap kho" sheetId="2" r:id="rId1"/>
@@ -91,9 +91,6 @@
   </si>
   <si>
     <t xml:space="preserve">Giám đốc </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Người lập phiếu         Người lập phiếu </t>
   </si>
   <si>
     <t xml:space="preserve">                                                                                                                                     Ngày {0} tháng {1} năm {2}  </t>
@@ -168,6 +165,9 @@
   </si>
   <si>
     <t>Số: {0}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Người lập phiếu         Người giao hàng </t>
   </si>
 </sst>
 </file>
@@ -433,56 +433,56 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <alignment horizontal="right" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -836,7 +836,7 @@
     <col min="3" max="3" width="33.5703125" style="1" customWidth="1"/>
     <col min="4" max="4" width="13.7109375" style="1" customWidth="1"/>
     <col min="5" max="5" width="8.5703125" style="1" customWidth="1"/>
-    <col min="6" max="6" width="12.85546875" style="1" customWidth="1"/>
+    <col min="6" max="6" width="13.85546875" style="1" customWidth="1"/>
     <col min="7" max="7" width="14.7109375" style="1" customWidth="1"/>
     <col min="8" max="8" width="12.85546875" style="1" customWidth="1"/>
     <col min="9" max="9" width="14.28515625" style="1" customWidth="1"/>
@@ -845,53 +845,53 @@
   <sheetData>
     <row r="1" spans="2:9" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="2:9" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="41" t="s">
-        <v>37</v>
-      </c>
-      <c r="C2" s="41"/>
-      <c r="F2" s="34" t="s">
+      <c r="B2" s="38" t="s">
+        <v>36</v>
+      </c>
+      <c r="C2" s="38"/>
+      <c r="F2" s="32" t="s">
         <v>0</v>
       </c>
-      <c r="G2" s="34"/>
-      <c r="H2" s="34"/>
-      <c r="I2" s="34"/>
+      <c r="G2" s="32"/>
+      <c r="H2" s="32"/>
+      <c r="I2" s="32"/>
     </row>
     <row r="3" spans="2:9" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="41" t="s">
-        <v>36</v>
-      </c>
-      <c r="C3" s="41"/>
-      <c r="F3" s="35" t="s">
+      <c r="B3" s="38" t="s">
+        <v>35</v>
+      </c>
+      <c r="C3" s="38"/>
+      <c r="F3" s="33" t="s">
         <v>1</v>
       </c>
-      <c r="G3" s="35"/>
-      <c r="H3" s="35"/>
-      <c r="I3" s="35"/>
+      <c r="G3" s="33"/>
+      <c r="H3" s="33"/>
+      <c r="I3" s="33"/>
     </row>
     <row r="4" spans="2:9" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B4" s="24"/>
       <c r="C4" s="5"/>
-      <c r="F4" s="35" t="s">
+      <c r="F4" s="33" t="s">
         <v>19</v>
       </c>
-      <c r="G4" s="35"/>
-      <c r="H4" s="35"/>
-      <c r="I4" s="35"/>
+      <c r="G4" s="33"/>
+      <c r="H4" s="33"/>
+      <c r="I4" s="33"/>
     </row>
     <row r="5" spans="2:9" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B5" s="6"/>
     </row>
     <row r="6" spans="2:9" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="38" t="s">
-        <v>35</v>
-      </c>
-      <c r="C6" s="38"/>
-      <c r="D6" s="38"/>
-      <c r="E6" s="38"/>
-      <c r="F6" s="38"/>
-      <c r="G6" s="38"/>
-      <c r="H6" s="38"/>
-      <c r="I6" s="38"/>
+      <c r="B6" s="36" t="s">
+        <v>34</v>
+      </c>
+      <c r="C6" s="36"/>
+      <c r="D6" s="36"/>
+      <c r="E6" s="36"/>
+      <c r="F6" s="36"/>
+      <c r="G6" s="36"/>
+      <c r="H6" s="36"/>
+      <c r="I6" s="36"/>
     </row>
     <row r="7" spans="2:9" ht="9.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B7" s="23"/>
@@ -906,25 +906,25 @@
     <row r="8" spans="2:9" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B8" s="22"/>
       <c r="C8" s="22"/>
-      <c r="D8" s="25" t="s">
-        <v>34</v>
-      </c>
-      <c r="E8" s="25"/>
-      <c r="F8" s="25"/>
+      <c r="D8" s="39" t="s">
+        <v>33</v>
+      </c>
+      <c r="E8" s="39"/>
+      <c r="F8" s="39"/>
     </row>
     <row r="9" spans="2:9" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B9" s="20"/>
       <c r="C9" s="20"/>
-      <c r="D9" s="39" t="s">
-        <v>38</v>
-      </c>
-      <c r="E9" s="39"/>
-      <c r="F9" s="39"/>
-      <c r="G9" s="39" t="s">
-        <v>33</v>
-      </c>
-      <c r="H9" s="39"/>
-      <c r="I9" s="39"/>
+      <c r="D9" s="37" t="s">
+        <v>37</v>
+      </c>
+      <c r="E9" s="37"/>
+      <c r="F9" s="37"/>
+      <c r="G9" s="37" t="s">
+        <v>32</v>
+      </c>
+      <c r="H9" s="37"/>
+      <c r="I9" s="37"/>
     </row>
     <row r="10" spans="2:9" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B10" s="21"/>
@@ -933,48 +933,48 @@
       <c r="E10" s="21"/>
       <c r="F10" s="21"/>
       <c r="G10" s="20" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H10" s="20"/>
       <c r="I10" s="20"/>
     </row>
     <row r="11" spans="2:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B11" s="28" t="s">
-        <v>31</v>
-      </c>
-      <c r="C11" s="29"/>
-      <c r="D11" s="29"/>
-      <c r="E11" s="28"/>
-      <c r="F11" s="29"/>
-      <c r="G11" s="29"/>
-      <c r="H11" s="29"/>
-      <c r="I11" s="29"/>
+      <c r="B11" s="27" t="s">
+        <v>30</v>
+      </c>
+      <c r="C11" s="28"/>
+      <c r="D11" s="28"/>
+      <c r="E11" s="27"/>
+      <c r="F11" s="28"/>
+      <c r="G11" s="28"/>
+      <c r="H11" s="28"/>
+      <c r="I11" s="28"/>
     </row>
     <row r="12" spans="2:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B12" s="30" t="s">
-        <v>30</v>
-      </c>
-      <c r="C12" s="30"/>
-      <c r="D12" s="30"/>
-      <c r="E12" s="30"/>
-      <c r="F12" s="30"/>
-      <c r="G12" s="30"/>
-      <c r="H12" s="30"/>
-      <c r="I12" s="30"/>
+      <c r="B12" s="29" t="s">
+        <v>29</v>
+      </c>
+      <c r="C12" s="29"/>
+      <c r="D12" s="29"/>
+      <c r="E12" s="29"/>
+      <c r="F12" s="29"/>
+      <c r="G12" s="29"/>
+      <c r="H12" s="29"/>
+      <c r="I12" s="29"/>
     </row>
     <row r="13" spans="2:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B13" s="31" t="s">
-        <v>29</v>
-      </c>
-      <c r="C13" s="31"/>
-      <c r="D13" s="31"/>
-      <c r="E13" s="30" t="s">
+      <c r="B13" s="30" t="s">
         <v>28</v>
       </c>
-      <c r="F13" s="31"/>
-      <c r="G13" s="31"/>
-      <c r="H13" s="31"/>
-      <c r="I13" s="31"/>
+      <c r="C13" s="30"/>
+      <c r="D13" s="30"/>
+      <c r="E13" s="29" t="s">
+        <v>27</v>
+      </c>
+      <c r="F13" s="30"/>
+      <c r="G13" s="30"/>
+      <c r="H13" s="30"/>
+      <c r="I13" s="30"/>
     </row>
     <row r="14" spans="2:9" ht="7.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B14" s="19"/>
@@ -987,42 +987,42 @@
       <c r="I14" s="18"/>
     </row>
     <row r="15" spans="2:9" ht="23.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B15" s="36" t="s">
+      <c r="B15" s="34" t="s">
         <v>9</v>
       </c>
-      <c r="C15" s="33" t="s">
+      <c r="C15" s="31" t="s">
         <v>10</v>
       </c>
-      <c r="D15" s="33" t="s">
+      <c r="D15" s="31" t="s">
         <v>14</v>
       </c>
-      <c r="E15" s="33" t="s">
+      <c r="E15" s="31" t="s">
         <v>11</v>
       </c>
-      <c r="F15" s="33" t="s">
+      <c r="F15" s="31" t="s">
         <v>2</v>
       </c>
-      <c r="G15" s="33"/>
-      <c r="H15" s="33" t="s">
+      <c r="G15" s="31"/>
+      <c r="H15" s="31" t="s">
         <v>12</v>
       </c>
-      <c r="I15" s="33" t="s">
+      <c r="I15" s="31" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="16" spans="2:9" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B16" s="37"/>
-      <c r="C16" s="33"/>
-      <c r="D16" s="33"/>
-      <c r="E16" s="33"/>
+      <c r="B16" s="35"/>
+      <c r="C16" s="31"/>
+      <c r="D16" s="31"/>
+      <c r="E16" s="31"/>
       <c r="F16" s="8" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G16" s="17" t="s">
-        <v>26</v>
-      </c>
-      <c r="H16" s="33"/>
-      <c r="I16" s="33"/>
+        <v>25</v>
+      </c>
+      <c r="H16" s="31"/>
+      <c r="I16" s="31"/>
     </row>
     <row r="17" spans="2:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B17" s="10" t="s">
@@ -1138,43 +1138,43 @@
       </c>
     </row>
     <row r="27" spans="2:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B27" s="32" t="s">
-        <v>25</v>
-      </c>
-      <c r="C27" s="32"/>
-      <c r="D27" s="32"/>
-      <c r="E27" s="32"/>
-      <c r="F27" s="32"/>
-      <c r="G27" s="32"/>
-      <c r="H27" s="32"/>
-      <c r="I27" s="32"/>
+      <c r="B27" s="41" t="s">
+        <v>24</v>
+      </c>
+      <c r="C27" s="41"/>
+      <c r="D27" s="41"/>
+      <c r="E27" s="41"/>
+      <c r="F27" s="41"/>
+      <c r="G27" s="41"/>
+      <c r="H27" s="41"/>
+      <c r="I27" s="41"/>
     </row>
     <row r="28" spans="2:9" ht="17.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B28" s="26" t="s">
-        <v>24</v>
-      </c>
-      <c r="C28" s="26"/>
-      <c r="D28" s="26" t="s">
+      <c r="B28" s="25" t="s">
+        <v>38</v>
+      </c>
+      <c r="C28" s="25"/>
+      <c r="D28" s="25" t="s">
         <v>15</v>
       </c>
-      <c r="E28" s="26"/>
-      <c r="F28" s="26" t="s">
+      <c r="E28" s="25"/>
+      <c r="F28" s="25" t="s">
         <v>16</v>
       </c>
-      <c r="G28" s="26"/>
+      <c r="G28" s="25"/>
       <c r="I28" s="5" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="29" spans="2:9" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B29" s="27" t="s">
+    <row r="29" spans="2:9" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B29" s="26" t="s">
         <v>22</v>
       </c>
-      <c r="C29" s="27"/>
-      <c r="D29" s="27" t="s">
+      <c r="C29" s="26"/>
+      <c r="D29" s="26" t="s">
         <v>17</v>
       </c>
-      <c r="E29" s="27"/>
+      <c r="E29" s="26"/>
       <c r="F29" s="40" t="s">
         <v>18</v>
       </c>
@@ -1193,8 +1193,8 @@
     <row r="31" spans="2:9" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B31" s="3"/>
       <c r="C31" s="2"/>
-      <c r="D31" s="27"/>
-      <c r="E31" s="27"/>
+      <c r="D31" s="26"/>
+      <c r="E31" s="26"/>
     </row>
   </sheetData>
   <mergeCells count="29">
